--- a/lab06/doc/testbench_data.xlsx
+++ b/lab06/doc/testbench_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucet\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucetre\Documents\semester\21s-hardware-system-design\lab06\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFB9F45-607B-440C-80BF-C91E97F105BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E083F29B-8B9D-4258-AA08-90AD7E31F9C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3B6D0C7-2F73-4A82-BEED-4930ACA90633}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{E3B6D0C7-2F73-4A82-BEED-4930ACA90633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,7 +102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,20 +419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8BC330-DEE4-49D5-88A4-A990228B81C4}">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D18"/>
+      <selection activeCell="F3" sqref="F3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -460,8 +460,12 @@
         <f>B3*C3</f>
         <v>45.383765013442165</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F3" t="str">
+        <f>A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" &amp; "&amp;D3&amp;" \\"</f>
+        <v>1 &amp; 7.80244779586791 &amp; 5.81660604476929 &amp; 45.3837650134422 \\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -475,8 +479,12 @@
         <f>B4*C4+D3</f>
         <v>66.118913173986357</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F18" si="0">A4&amp;" &amp; "&amp;B4&amp;" &amp; "&amp;C4&amp;" &amp; "&amp;D4&amp;" \\"</f>
+        <v>2 &amp; 4.89655828475952 &amp; 4.23463726043701 &amp; 66.1189131739864 \\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -487,11 +495,15 @@
         <v>2.3230934143066402</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D18" si="0">B5*C5+D4</f>
+        <f t="shared" ref="D5:D18" si="1">B5*C5+D4</f>
         <v>74.027855919548301</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>3 &amp; 3.40448760986328 &amp; 2.32309341430664 &amp; 74.0278559195483 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -502,11 +514,15 @@
         <v>3.3057417869567902</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83.253905028652071</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>4 &amp; 2.79091644287109 &amp; 3.30574178695679 &amp; 83.2539050286521 \\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -517,11 +533,15 @@
         <v>6.4784522056579599</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125.12279977392792</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>5 &amp; 6.46279287338257 &amp; 6.47845220565796 &amp; 125.122799773928 \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -532,11 +552,15 @@
         <v>2.6359448432922399</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143.16911971131711</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>6 &amp; 6.84624338150024 &amp; 2.63594484329224 &amp; 143.169119711317 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -547,11 +571,15 @@
         <v>2.2140989303588898</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>158.94391156992907</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>7 &amp; 7.12470054626465 &amp; 2.21409893035889 &amp; 158.943911569929 \\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -562,11 +590,15 @@
         <v>5.5876150131225604</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.9688813352796</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>8 &amp; 3.94174790382385 &amp; 5.58761501312256 &amp; 180.96888133528 \\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -577,11 +609,15 @@
         <v>3.3649609088897701</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>204.20990118638298</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>9 &amp; 6.90677261352539 &amp; 3.36496090888977 &amp; 204.209901186383 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -592,11 +628,15 @@
         <v>6.03147268295288</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>245.583923672916</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>10 &amp; 6.85968828201294 &amp; 6.03147268295288 &amp; 245.583923672916 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -607,11 +647,15 @@
         <v>3.3715918064117401</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>257.6510525015841</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>11 &amp; 3.57905983924866 &amp; 3.37159180641174 &amp; 257.651052501584 \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -622,11 +666,15 @@
         <v>3.0324459075927699</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>269.20347251617966</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>12 &amp; 3.80960464477539 &amp; 3.03244590759277 &amp; 269.20347251618 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -637,11 +685,15 @@
         <v>3.2394485473632799</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>286.93331595291272</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>13 &amp; 5.47310543060303 &amp; 3.23944854736328 &amp; 286.933315952913 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -652,11 +704,15 @@
         <v>2.31567335128784</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>291.67637779104837</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>14 &amp; 2.04824304580688 &amp; 2.31567335128784 &amp; 291.676377791048 \\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -667,11 +723,15 @@
         <v>3.8579089641571001</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>311.82316070041043</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>15 &amp; 5.22220277786255 &amp; 3.8579089641571 &amp; 311.82316070041 \\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -682,8 +742,12 @@
         <v>3.3477149009704599</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323.03191456005072</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>16 &amp; 3.34818053245544 &amp; 3.34771490097046 &amp; 323.031914560051 \\</v>
       </c>
     </row>
   </sheetData>
